--- a/data/1_preprocess/DIAGNOSTICO_CATEGORIAS.xlsx
+++ b/data/1_preprocess/DIAGNOSTICO_CATEGORIAS.xlsx
@@ -22,7 +22,7 @@
     <t>Categoría</t>
   </si>
   <si>
-    <t>fecha</t>
+    <t>date</t>
   </si>
   <si>
     <t>Saldo_de_la_deuda_externa_total_porcentaje_del_PIB_Deuda externa (pública y privada)_bond</t>
